--- a/biology/Botanique/Clade_PACMAD/Clade_PACMAD.xlsx
+++ b/biology/Botanique/Clade_PACMAD/Clade_PACMAD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade PACMAD (précédemment PACCMAD, PACCAD ou PACC[2]) est l'une des deux principales lignées (ou clades) des graminées (Poaceae), regroupant six sous-familles et environ 5700 espèces, soit plus de la moitié des espèces de l'ensemble des graminées. Son groupe frère est le  clade BEP.
-La lignée PACMAD est le seul groupe au sein des graminées dans lequel la  voie photosynthétique en C4 a évolué ; des études ont montré que cela s'est produit indépendamment à plusieurs reprises[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade PACMAD (précédemment PACCMAD, PACCAD ou PACC) est l'une des deux principales lignées (ou clades) des graminées (Poaceae), regroupant six sous-familles et environ 5700 espèces, soit plus de la moitié des espèces de l'ensemble des graminées. Son groupe frère est le  clade BEP.
+La lignée PACMAD est le seul groupe au sein des graminées dans lequel la  voie photosynthétique en C4 a évolué ; des études ont montré que cela s'est produit indépendamment à plusieurs reprises.
 Le nom du clade provient des initilales des sous-familles incluses, Panicoideae, Arundinoideae, Chloridoideae, Micrairoideae, Aristidoideae  et Danthonioideae.
 Il n'a pas de rang taxinomique défini, mais est fréquemment utilisé car il fait référence à un groupe monophylétique bien défini, avec une écologie distincte.
 </t>
@@ -514,9 +526,11 @@
           <t>Phylogénie du clade PACMAD</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">avec indication de la  voie photosynthétique pour chaque sous-famille[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">avec indication de la  voie photosynthétique pour chaque sous-famille :
 </t>
         </is>
       </c>
